--- a/src/digitalmodel/data/crosby/26_shackles_bolt_type_anchor_g2130.xlsx
+++ b/src/digitalmodel/data/crosby/26_shackles_bolt_type_anchor_g2130.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ss7a2365\Documents\github\digitalmodel\src\digitalmodel\data\crosby\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E3D4B5E-E68F-4CEE-972F-95FF509A107F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{250B6B81-9264-420C-B26D-83F47281E0FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EB5A485A-87BB-4971-B786-30017D29655F}"/>
   </bookViews>
@@ -65,9 +65,6 @@
     <t>with_eye_bolt</t>
   </si>
   <si>
-    <t>G-2130_stock</t>
-  </si>
-  <si>
     <t>S-2130_stock</t>
   </si>
   <si>
@@ -93,6 +90,9 @@
   </si>
   <si>
     <t>N_in</t>
+  </si>
+  <si>
+    <t>part_number</t>
   </si>
 </sst>
 </file>
@@ -453,7 +453,7 @@
   <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -466,13 +466,13 @@
         <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="F1" t="s">
         <v>0</v>
@@ -487,25 +487,25 @@
         <v>3</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>3</v>

--- a/src/digitalmodel/data/crosby/26_shackles_bolt_type_anchor_g2130.xlsx
+++ b/src/digitalmodel/data/crosby/26_shackles_bolt_type_anchor_g2130.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ss7a2365\Documents\github\digitalmodel\src\digitalmodel\data\crosby\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{250B6B81-9264-420C-B26D-83F47281E0FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{814853A5-753F-4FB5-9B2D-413DAF3FB0A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EB5A485A-87BB-4971-B786-30017D29655F}"/>
   </bookViews>
@@ -453,7 +453,7 @@
   <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1706,7 +1706,7 @@
       <c r="A21" s="2">
         <v>4</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="1">
         <v>150</v>
       </c>
       <c r="C21">
